--- a/tests/resources/EVA_Submission_test_version_missing.xlsx
+++ b/tests/resources/EVA_Submission_test_version_missing.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="PLEASE READ FIRST" sheetId="1" state="visible" r:id="rId3"/>
@@ -87,7 +87,7 @@
     <t xml:space="preserve">Project</t>
   </si>
   <si>
-    <t xml:space="preserve">The objective of this sheet is to gather general information about the Project including submitter, submitting centre, collaborators and publications, if its a new project. In case of an existing project, you can just provide the project accession.</t>
+    <t xml:space="preserve">The objective of this sheet is to gather general information about the Project including submitter, submitting centre, collaborators and publications, if its a new project. In case of an existing project, you can just provide the project accession and analyses will be added to that.</t>
   </si>
   <si>
     <t xml:space="preserve">Sample</t>
@@ -2921,8 +2921,8 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3067,7 +3067,7 @@
       </c>
       <c r="C13" s="21"/>
     </row>
-    <row r="14" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="67.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="22" t="s">
         <v>11</v>
       </c>
@@ -4977,7 +4977,7 @@
   </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -5133,8 +5133,8 @@
   </sheetPr>
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.3671875" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5274,7 +5274,7 @@
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C2:N2"/>
   </mergeCells>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="This title will be diplayed on the EVA study page for your project" promptTitle="PROJECT" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C4" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
@@ -5284,6 +5284,10 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="These sample names must match those provided in the VCF file(s)" promptTitle="Metadata and VCF" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B1" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="Accession of the project in case it already exists. In this case, analyses will be added to this project." promptTitle="Pre-existing Project" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A1:A1004" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -13721,11 +13725,11 @@
     <mergeCell ref="AI2:AR2"/>
   </mergeCells>
   <dataValidations count="9">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Must match an analysis alias provided in the &quot;ANALYSIS&quot; sheet&#10;Multiple entries can be separated with a comma&#10;e.g. analysis1,analysis2" promptTitle="Analysis alias" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A1:A3" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="These sample names must match those provided in the VCF file(s)" promptTitle="Metadata and VCF" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D1:E1 B2 E2 B4:B31 D4:D6 E8:E30 B32:B1007" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="These sample names must match those provided in the VCF file(s)" promptTitle="Metadata and VCF" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D1:E1 B2 E2 B4:B31 D4:D6 E8:E30 B32:B1007" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Must match an analysis alias provided in the &quot;ANALYSIS&quot; sheet&#10;Multiple entries can be separated with a comma&#10;e.g. analysis1,analysis2" promptTitle="Analysis alias" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A1:A3" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/tests/resources/EVA_Submission_test_version_missing.xlsx
+++ b/tests/resources/EVA_Submission_test_version_missing.xlsx
@@ -308,7 +308,7 @@
     <t xml:space="preserve">Project Accession</t>
   </si>
   <si>
-    <t xml:space="preserve">Accession of the project in case it already exists</t>
+    <t xml:space="preserve">Accession of the project in case it already exists. In this case, analyses will be added to this project.</t>
   </si>
   <si>
     <t xml:space="preserve">Section 2: "New Project"</t>
@@ -4978,7 +4978,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
